--- a/7_quantitative_and_statistical_analysis_and_modeling/aula3/Modulo 7 – Sessão 3 -  Respostas Questões.xlsx
+++ b/7_quantitative_and_statistical_analysis_and_modeling/aula3/Modulo 7 – Sessão 3 -  Respostas Questões.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pessoal\Familia\Eu\ENI\EDIT\202501 Data Science\MÓDULO 7 - QUANTITATIVE STATISTICAL ANALYSIS AND MODELING\AULA 3\Questionário\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clasquinsa-my.sharepoint.com/personal/andreia_campos_clasquin_com/Documents/Desktop/new/datascience_course/7_quantitative_and_statistical_analysis_and_modeling/aula3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B771BA2-6281-4012-891E-1A08D152552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{5B771BA2-6281-4012-891E-1A08D152552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54CDDFC2-5DD5-4333-B310-13EA33231822}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7155147E-C2FE-4588-82C4-C338199DD2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>QUESTIONÁRIO INDIVIDUAL</t>
   </si>
@@ -144,6 +144,376 @@
         <rFont val="Roboto"/>
       </rPr>
       <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Andreia Filipa Araújo Campos</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>amostra estratificada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> agrupamos os individuos por estrato e extraímos aleatoriamente individuos de cada estrato. A amostra estratificada representa a população, ou seja, tem a mesma distribuição que a população. Na </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>amostragem por clusters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">, a população é dividida por subgrupos heterogéneos que são representativos da população como um todo. Em seguida, alguns dos clusters são selecionados aleatoriamente , e todos os individuos dentro desse cluster são incluidos na amostra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Amostragem Estratificada</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Vantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">:
+                  Maior precisão nos resultados.
+                  Garante representatividade de cada grupo.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Desvantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">:
+                  Pode ser mais cara e trabalhosa.
+                  Exige conhecimento prévio da população.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Amostragem por Clusters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Vantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">:
+                  Menor custo e esforço para coleta.
+                  Útil quando a população está dispersa geograficamente.
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Desvantagens</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">:
+                  Menos precisa se os clusters forem muito heterogéneos.
+                  Pode aumentar a variabilidade dos resultados.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Exemplos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Amostragem Estratificada:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+Um hospital deseja analisar a taxa de recuperação dos pacientes com diferentes tipos de doenças (cardíacas, respiratórias, ortopédicas, neurológicas). Para garantir que cada tipo de doença esteja representado adequadamente, os pacientes são divididos nesses estratos e, dentro de cada grupo, é selecionada uma amostra aleatória para estudo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Amostragem por Clusters:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+Uma empresa de telecomunicações quer medir a qualidade do serviço de internet em uma região extensa. Em vez de selecionar clientes individuais espalhados por toda a área, ela divide a região em cidades (clusters) e escolhe algumas cidades aleatoriamente. Depois, avalia a experiência de todos os clientes dentro dessas cidades selecionadas, reduzindo os custos e a complexidade da pesquisa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Especificação do Problema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">       Variável de estudo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Se o aluno faz ou não Erasmus (variável qualitativa: "Sim" ou "Não").
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> População-alvo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Estudantes portugueses do ensino superior.
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Objetivo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">: Determinar a percentagem de alunos que participam no programa Erasmus.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Processo de Recolha de Informação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+Para recolher dados sobre a percentagem de alunos que fazem Erasmus, o processo seguiria os seguintes passos:
+           Contactar universidades e institutos politécnicos portugueses.
+           Aplicação de um questionário online enviado aos alunos através dos serviços académicos ou redes sociais institucionais.
+           Perguntas Relevantes no Questionário
+                      "Já participou no programa Erasmus?" (Sim/Não)
+                      "Se não participou, qual o motivo?" (Resposta aberta ou opções como falta de financiamento, falta de interesse, etc.)
+                      "Qual é o seu curso e ano académico?" (Para análise por áreas de estudo).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>​Tipo e Dimensão da Amostra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+           Se não for possível inquirir todos os estudantes do ensino superior em Portugal, será necessário trabalhar com uma amostra representativa.
+           Assim, irei adoptar a amostra estratificada. Irei dividir os estudantes por critérios como:
+                      Universidade/Instituto Politécnico.
+                      Área de estudo (Ciências, Engenharias, Humanidades, etc.).
+                      Ano académico (Licenciatura, Mestrado, Doutoramento).
+           Este método garante que diferentes grupos estão representados.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>Determinação do Tamanho da Amostra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+           Para garantir um nível de confiança de 95% e um erro amostral de 5%, a fórmula usual para uma população grande é:
+Onde:
+           Z=1,96 (para 95% de confiança),
+           p=0,5 (assumimos uma proporção de 50%, pois é o pior caso para maximizar o tamanho da amostra),
+           E=0,05 (margem de erro de 5%).
+Substituindo os valores:
+Assim, uma amostra mínima de 385 estudantes seria necessária para obter resultados estatisticamente representativos.</t>
     </r>
   </si>
 </sst>
@@ -203,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -380,11 +750,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -404,9 +800,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -431,23 +824,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -469,6 +859,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,6 +887,983 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>834549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1537176" cy="390525"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEE6C5A-0E64-97C3-5114-440929D18930}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11340624" y="12811125"/>
+              <a:ext cx="1537176" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>n</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑍</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>⋅</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>p</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>⋅(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>p</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)​</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐸</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>​ </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEE6C5A-0E64-97C3-5114-440929D18930}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11340624" y="12811125"/>
+              <a:ext cx="1537176" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"n=" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑍^2 "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⋅p⋅(1−p)​ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐸^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>​ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" i="0"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1895475</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1537176" cy="390525"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8B20B9-FE44-4E0F-B811-ABB541903588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11363325" y="14182725"/>
+              <a:ext cx="1537176" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>n</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1.96</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>⋅</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0.5</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>⋅(</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0.5</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)​</m:t>
+                        </m:r>
+                        <m:r>
+                          <m:rPr>
+                            <m:nor/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0.05</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t>​</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB" b="0" i="0"/>
+                      <m:t>=385</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="en-GB"/>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8B20B9-FE44-4E0F-B811-ABB541903588}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11363325" y="14182725"/>
+              <a:ext cx="1537176" cy="390525"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"n=" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.96</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2 "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⋅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⋅(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)​ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.05</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>​</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=385</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" i="0"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,53 +2183,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFD48AE-6D38-48E4-93DE-FCF95002BB4C}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="123.85546875" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>45740</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,100 +2244,139 @@
       <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="12"/>
+      <c r="C6" s="12">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="12"/>
+      <c r="C10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>